--- a/Griffs.xlsx
+++ b/Griffs.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kailo\Documents\GitHub\ServerlessBrix\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aaron\Desktop\Git\ServerlessBrix\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E140EE99-BD31-43D6-9AE7-055F09D10F9F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7BE784-2AA1-42E4-BAE5-A2C4184BFE44}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="1050" windowWidth="15510" windowHeight="10140" xr2:uid="{C8897652-DE40-46BB-AA56-F716A5C70CA3}"/>
+    <workbookView xWindow="390" yWindow="1815" windowWidth="15210" windowHeight="9240" xr2:uid="{C8897652-DE40-46BB-AA56-F716A5C70CA3}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,10 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
-  <si>
-    <t>https://www.lego.com/biassets/biimg/6187033.png</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Images</t>
   </si>
@@ -42,29 +40,29 @@
     <t>SetNumber</t>
   </si>
   <si>
-    <t>https://www.lego.com/biassets/bi/6187033.pdf</t>
-  </si>
-  <si>
     <t>URL</t>
   </si>
   <si>
     <t>Description</t>
-  </si>
-  <si>
-    <t>Mr. Freeze Ice Attack</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -403,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC63018E-5974-44E6-B994-8483A1674CF9}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -414,21 +413,21 @@
     <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="44.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
       <c r="D1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -443,32 +442,32 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>60042</v>
+        <v>31071</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>60065</v>
+        <v>60042</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>60072</v>
+        <v>60065</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>60084</v>
+        <v>60072</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>60100</v>
+        <v>60084</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>60106</v>
+        <v>60100</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -478,57 +477,106 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>60117</v>
+        <v>60106</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>60127</v>
+        <v>60117</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>60137</v>
+        <v>60127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>60152</v>
+        <v>60137</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>60171</v>
+        <v>60150</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
+        <v>60152</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>60156</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>60157</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>60171</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>60184</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>60182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>60183</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
         <v>70901</v>
       </c>
-      <c r="B17" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18">
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
         <v>76098</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:B24">
     <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F830A6BD-E3DC-4285-9479-9DA45D363457}">
+  <dimension ref="B17:B20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>